--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
+      <selection activeCell="D46" pane="bottomLeft" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="32.09765625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="23.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="32.09765625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -608,7 +676,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -637,7 +705,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -1742,12 +1810,12 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>ילד ראשון במשפחה</t>
+          <t>ילד ראשון</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>first child in the family</t>
+          <t>first child</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1812,10 +1880,121 @@
         </is>
       </c>
     </row>
-    <row r="48"/>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>622</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>יכולת פוטנציאלית</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>potential capability</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>623</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>יש לי את היכולת</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>i have the ability</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>624</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>יכולות גבוהות</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>high abilities</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>625</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>אישה גבוהה</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>tall woman</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1827,7 +2006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1839,7 +2018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1850,7 +2029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
-      <selection activeCell="D46" pane="bottomLeft" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="32.09765625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="32.09765625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="23.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -676,7 +608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -705,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -1992,9 +1924,10 @@
         </is>
       </c>
     </row>
+    <row r="52"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2006,7 +1939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2018,7 +1951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2029,7 +1962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2568,7 +2568,399 @@
         </is>
       </c>
     </row>
-    <row r="75"/>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>667</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>אני לא כמוך</t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>i am not like you</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>668</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>גבוה ככל הניתן</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>as high as possible</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>669</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>כפי שאתה יכול לראות</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>as you can see</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>670</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>כמוך</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>like you</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>671</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>אני מחבב אותך</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>i like you</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>672</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>אין דברים כאלה</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>there are no such things</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>673</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
+        <is>
+          <t>כמו כל אחד אחר</t>
+        </is>
+      </c>
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>like everyone else</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>674</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>אני יודע אנגלית</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>i know english</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>675</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" s="12" t="inlineStr">
+        <is>
+          <t>אם אתה יכול</t>
+        </is>
+      </c>
+      <c r="E83" s="12" t="inlineStr">
+        <is>
+          <t>if you can</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>676</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>האם אתה יכול לעזור לי</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>can you help me</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>677</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" s="12" t="inlineStr">
+        <is>
+          <t>כל יום</t>
+        </is>
+      </c>
+      <c r="E85" s="12" t="inlineStr">
+        <is>
+          <t>every day</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>678</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>כל אחד מכם</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>each of you</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>679</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" s="12" t="inlineStr">
+        <is>
+          <t>בכל זמן</t>
+        </is>
+      </c>
+      <c r="E87" s="12" t="inlineStr">
+        <is>
+          <t>at any time</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>680</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>אני זמין כל השבוע</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>i am available all week</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="89"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2526,23 +2526,23 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>אני הבנתי i ***** it</t>
+          <t>כריית זהב</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>i got it</t>
+          <t>gold mining</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2554,23 +2554,23 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>שרוול קצר</t>
+          <t>שדה מוקשים</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
         <is>
-          <t>short sleeve</t>
+          <t>mine field</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2582,23 +2582,23 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>אני לא כמוך</t>
+          <t>אני הבנתי i ***** it</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
         <is>
-          <t>i am not like you</t>
+          <t>i got it</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>200616</t>
+          <t>200615</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2610,23 +2610,23 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>גבוה ככל הניתן</t>
+          <t>שרוול קצר</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
         <is>
-          <t>as high as possible</t>
+          <t>short sleeve</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>200616</t>
+          <t>200615</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2638,23 +2638,23 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>כפי שאתה יכול לראות</t>
+          <t>ללבוש מכנסיים קצרים</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
         <is>
-          <t>as you can see</t>
+          <t>to wear shorts</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>200616</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="13.2" customHeight="1">
       <c r="A78" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>כמוך</t>
+          <t>אני לא כמוך</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
         <is>
-          <t>like you</t>
+          <t>i am not like you</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2682,7 +2682,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>אני מחבב אותך</t>
+          <t>גבוה ככל הניתן</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
         <is>
-          <t>i like you</t>
+          <t>as high as possible</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -2710,7 +2710,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2722,12 +2722,12 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>אין דברים כאלה</t>
+          <t>כפי שאתה יכול לראות</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
         <is>
-          <t>there are no such things</t>
+          <t>as you can see</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2738,7 +2738,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>כמו כל אחד אחר</t>
+          <t>כמוך</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
         <is>
-          <t>like everyone else</t>
+          <t>like you</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2766,7 +2766,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>אני יודע אנגלית</t>
+          <t>אני מחבב אותך</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
         <is>
-          <t>i know english</t>
+          <t>i like you</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2794,7 +2794,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>אם אתה יכול</t>
+          <t>אין דברים כאלה</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
         <is>
-          <t>if you can</t>
+          <t>there are no such things</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2822,7 +2822,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2834,12 +2834,12 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>האם אתה יכול לעזור לי</t>
+          <t>כמו כל אחד אחר</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
         <is>
-          <t>can you help me</t>
+          <t>like everyone else</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2850,7 +2850,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2862,12 +2862,12 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>כל יום</t>
+          <t>אני יודע אנגלית</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
         <is>
-          <t>every day</t>
+          <t>i know english</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2878,7 +2878,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2890,12 +2890,12 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>כל אחד מכם</t>
+          <t>אם אתה יכול</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
         <is>
-          <t>each of you</t>
+          <t>if you can</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -2918,12 +2918,12 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>בכל זמן</t>
+          <t>האם אתה יכול לעזור לי</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
         <is>
-          <t>at any time</t>
+          <t>can you help me</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -2934,33 +2934,1153 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
+        <v>677</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>כל יום</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>every day</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>678</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>זה את זה</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>each other</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>722</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
+        <is>
+          <t>הם עזרו זה לזה</t>
+        </is>
+      </c>
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>they helped each other</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>723</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>הם אוהבים אחד את השני</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>they love each other</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>724</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>זה עם זה</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>with each other</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>679</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>בכל זמן</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>at any time</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>200616</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>725</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>בכל מקרה אחר</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>in any other case</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>726</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>בכל רגע נתון</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>at any given moment</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>680</v>
       </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" s="12" t="inlineStr">
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
         <is>
           <t>אני זמין כל השבוע</t>
         </is>
       </c>
-      <c r="E88" s="12" t="inlineStr">
+      <c r="E96" s="12" t="inlineStr">
         <is>
           <t>i am available all week</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>200616</t>
         </is>
       </c>
     </row>
-    <row r="89"/>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>687</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>מי שחרר את הכלבים</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>who let the dogs out</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>688</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>מי זה מי</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>who is who</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>689</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>הסיפור שלהם</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>their story</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>690</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
+        <is>
+          <t>זה יעבוד</t>
+        </is>
+      </c>
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>it will work</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>691</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>רצון ברזל</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>iron will</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>692</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>כל כך יפה</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>so beautiful</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>693</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>אז מה</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>so what</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>694</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" s="12" t="inlineStr">
+        <is>
+          <t>לספר את הסיפור</t>
+        </is>
+      </c>
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>to tell the story</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>695</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>מאחורי הקווים</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>behind the lines</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>696</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>על הקו</t>
+        </is>
+      </c>
+      <c r="E106" s="12" t="inlineStr">
+        <is>
+          <t>on the line</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>697</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>קו ארוך</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>long line</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>698</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D108" s="12" t="inlineStr">
+        <is>
+          <t>על שולחן האוכל</t>
+        </is>
+      </c>
+      <c r="E108" s="12" t="inlineStr">
+        <is>
+          <t>on the dining table</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>713</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>על שולחן הכתיבה</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>on the desk</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>699</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D110" s="12" t="inlineStr">
+        <is>
+          <t>שולחן ארוך</t>
+        </is>
+      </c>
+      <c r="E110" s="12" t="inlineStr">
+        <is>
+          <t>long table</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>700</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>טבלה מלאה</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>full table</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>701</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" s="12" t="inlineStr">
+        <is>
+          <t>היום זה היום</t>
+        </is>
+      </c>
+      <c r="E112" s="12" t="inlineStr">
+        <is>
+          <t>today is today</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>702</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>ילד טוב</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>good boy</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>703</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
+        <is>
+          <t>ילדה גבוהה</t>
+        </is>
+      </c>
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>tall girl</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>704</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>אמרתי שאבוא</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>i said i would come</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>705</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>לעשות אותך שמח</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>to make you happy</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>706</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>גרמתי לזה לקרות</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>i made it happen</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>707</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>מיוצר בסין</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>made in china</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>708</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
+        <is>
+          <t>להכין מרק</t>
+        </is>
+      </c>
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>to make soup</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>716</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>בוא הנה</t>
+        </is>
+      </c>
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>come here</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>717</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>אני כאן</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>i am here</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>718</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D122" s="12" t="inlineStr">
+        <is>
+          <t>כאן ועכשיו</t>
+        </is>
+      </c>
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>here and now</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>727</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>רגעים טובים</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>good moments</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>728</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D124" s="12" t="inlineStr">
+        <is>
+          <t>מה השעה עכשיו</t>
+        </is>
+      </c>
+      <c r="E124" s="12" t="inlineStr">
+        <is>
+          <t>what is the time now</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>729</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>הזמן הכי טוב</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>the best time</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>730</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D126" s="12" t="inlineStr">
+        <is>
+          <t>זה המון זמן</t>
+        </is>
+      </c>
+      <c r="E126" s="12" t="inlineStr">
+        <is>
+          <t>it is a lot of time</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>731</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>בזמן קצר</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>in a short time</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>732</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D128" s="12" t="inlineStr">
+        <is>
+          <t>זמן חופשי</t>
+        </is>
+      </c>
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>free time</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="129"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4080,7 +4080,427 @@
         </is>
       </c>
     </row>
-    <row r="129"/>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>763</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>מערכת הפעלה</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>operating system</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>764</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
+        <is>
+          <t>אנחנו נעשה את זה ביחד</t>
+        </is>
+      </c>
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>we will do it together</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>765</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>לעבוד ביחד</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>to work together</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>766</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>היא האחות היחידה שלי</t>
+        </is>
+      </c>
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>she is my only sister</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>767</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>רק איתי</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>only with me</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>768</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>קובץ לקריאה בלבד</t>
+        </is>
+      </c>
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>read-only file</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>769</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>הוא היחיד</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>he is the only one</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>770</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>למבוגרים בלבד</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>adults only</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>771</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>הוא פשוט אידיוט</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>he is just an idiot</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>772</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>רק תחשוב על זה</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>just think about it</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>773</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>אני רק רוצה לאכול</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>i just want to eat</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>774</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>זה עתה</t>
+        </is>
+      </c>
+      <c r="E140" s="12" t="inlineStr">
+        <is>
+          <t>just now</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>775</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>רק דקה</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>just a minute</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>776</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>סרטי מגוברים</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>adult movies</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>777</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>אנשים שונים</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>different people</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="144"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A127" ySplit="1"/>
+      <selection activeCell="B134" pane="bottomLeft" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
-    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -608,7 +676,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -637,7 +705,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2652,7 +2720,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="13.2" customHeight="1">
+    <row customHeight="1" ht="13.2" r="78">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -3161,7 +3229,7 @@
         <v>680</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4197,7 +4265,7 @@
         <v>767</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4430,7 +4498,7 @@
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>רק דקה</t>
+          <t>רק דקה ***** ***** *****j</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4463,7 +4531,7 @@
       </c>
       <c r="E142" s="12" t="inlineStr">
         <is>
-          <t>adult movies</t>
+          <t>adults movies</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -4503,7 +4571,7 @@
     <row r="144"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4515,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4527,7 +4595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4538,7 +4606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A127" ySplit="1"/>
-      <selection activeCell="B134" pane="bottomLeft" sqref="B134"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
-    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
+    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -676,7 +608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -705,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2720,7 +2652,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.2" r="78">
+    <row r="78" ht="13.2" customHeight="1">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -4571,7 +4503,7 @@
     <row r="144"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4583,7 +4515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4595,7 +4527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4606,7 +4538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A127" ySplit="1"/>
+      <selection activeCell="B134" pane="bottomLeft" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
-    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -608,7 +676,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -637,7 +705,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2652,7 +2720,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="13.2" customHeight="1">
+    <row customHeight="1" ht="13.2" r="78">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -4503,7 +4571,7 @@
     <row r="144"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4515,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4527,7 +4595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4538,7 +4606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A127" ySplit="1"/>
-      <selection activeCell="B134" pane="bottomLeft" sqref="B134"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
-    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
+    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -676,7 +608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -705,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2720,7 +2652,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.2" r="78">
+    <row r="78" ht="13.2" customHeight="1">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -3210,7 +3142,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>בכל רגע נתון</t>
+          <t>בכל רגע נתון at ***** ***** moment</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3691,7 +3623,7 @@
       </c>
       <c r="E112" s="12" t="inlineStr">
         <is>
-          <t>today is today</t>
+          <t>today is the day</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4568,10 +4500,710 @@
         </is>
       </c>
     </row>
-    <row r="144"/>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>803</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>למעלה ולמטה</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>up and down</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>804</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>זה תלוי בך</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>it is up to you</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>805</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>לוותר to ***** up</t>
+        </is>
+      </c>
+      <c r="E146" s="12" t="inlineStr">
+        <is>
+          <t>to give up</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>806</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>עדכני ed*****</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>807</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>עדכני ***** ***** up</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>up to date</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>808</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>כפי שנכתב לעיל</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>as written above</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>809</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>מעל כדור הארץ</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>above the earth</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>821</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>אני חשבתי</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>I thought</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>822</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>חשיבה חיובית</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>positive thinking</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>823</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>מחשבה יוצרת מציאות</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>thought creates reality</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>824</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D154" s="12" t="inlineStr">
+        <is>
+          <t>אני אחשוב על זה</t>
+        </is>
+      </c>
+      <c r="E154" s="12" t="inlineStr">
+        <is>
+          <t>i will think about it</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>830</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>עיבוד נתונים</t>
+        </is>
+      </c>
+      <c r="E155" s="12" t="inlineStr">
+        <is>
+          <t>data processing</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>831</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>ניתוח נתונים</t>
+        </is>
+      </c>
+      <c r="E156" s="12" t="inlineStr">
+        <is>
+          <t>data analysis</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>832</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D157" s="12" t="inlineStr">
+        <is>
+          <t>אני רוצה יותר</t>
+        </is>
+      </c>
+      <c r="E157" s="12" t="inlineStr">
+        <is>
+          <t>i want more</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>833</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D158" s="12" t="inlineStr">
+        <is>
+          <t>יש לו יותר תפוחים ממני</t>
+        </is>
+      </c>
+      <c r="E158" s="12" t="inlineStr">
+        <is>
+          <t>he has more apples than me</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>834</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D159" s="12" t="inlineStr">
+        <is>
+          <t>עוד פעם אחת</t>
+        </is>
+      </c>
+      <c r="E159" s="12" t="inlineStr">
+        <is>
+          <t>one more time</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>835</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
+        <is>
+          <t>יותר ממך</t>
+        </is>
+      </c>
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>more than you</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>836</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
+        <is>
+          <t>פחות או יותר</t>
+        </is>
+      </c>
+      <c r="E161" s="12" t="inlineStr">
+        <is>
+          <t>more or less</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>837</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D162" s="12" t="inlineStr">
+        <is>
+          <t>פחות ממני</t>
+        </is>
+      </c>
+      <c r="E162" s="12" t="inlineStr">
+        <is>
+          <t>less than me</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>838</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>למיין את המספרים</t>
+        </is>
+      </c>
+      <c r="E163" s="12" t="inlineStr">
+        <is>
+          <t>to sort the numbers</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>839</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D164" s="12" t="inlineStr">
+        <is>
+          <t>הוא אדיב מאוד</t>
+        </is>
+      </c>
+      <c r="E164" s="12" t="inlineStr">
+        <is>
+          <t>he is very kind</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>840</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
+        <is>
+          <t>ערכים שהוקלדו</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
+        <is>
+          <t>typed values</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>841</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D166" s="12" t="inlineStr">
+        <is>
+          <t>אני מקליד את הנתונים</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>i type the data</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>842</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>זה מייצג את המבנה</t>
+        </is>
+      </c>
+      <c r="E167" s="12" t="inlineStr">
+        <is>
+          <t>it represents the structure</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>843</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>הדגל מייצג את המדינה שלנו</t>
+        </is>
+      </c>
+      <c r="E168" s="12" t="inlineStr">
+        <is>
+          <t>the flag represents our country</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="169"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4583,7 +5215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4595,7 +5227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4606,7 +5238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D169" sqref="D169"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="E151" s="12" t="inlineStr">
         <is>
-          <t>I thought</t>
+          <t>i thought</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="E161" s="12" t="inlineStr">
         <is>
-          <t>more or less</t>
+          <t>less or more</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5130,12 +5130,12 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>אני מקליד את הנתונים</t>
+          <t>הקלדתי את הנתונים</t>
         </is>
       </c>
       <c r="E166" s="12" t="inlineStr">
         <is>
-          <t>i type the data</t>
+          <t>i typed the data</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5200,7 +5200,35 @@
         </is>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>886</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D169" s="12" t="inlineStr">
+        <is>
+          <t>חדר אוכל</t>
+        </is>
+      </c>
+      <c r="E169" s="12" t="inlineStr">
+        <is>
+          <t>dining room</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="170"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A165" ySplit="1"/>
-      <selection activeCell="E179" pane="bottomLeft" sqref="E179"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
-    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
+    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -676,7 +608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -705,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2720,7 +2652,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.2" r="78">
+    <row r="78" ht="13.2" customHeight="1">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -5604,9 +5536,10 @@
         </is>
       </c>
     </row>
+    <row r="181"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5618,7 +5551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5630,7 +5563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5641,7 +5574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -5564,7 +5564,259 @@
         </is>
       </c>
     </row>
-    <row r="182"/>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>הגורם העיקרי</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>the main factor</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
+        <is>
+          <t>הוא גרם לה כאב</t>
+        </is>
+      </c>
+      <c r="E183" s="12" t="inlineStr">
+        <is>
+          <t>he caused her pain</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D184" s="12" t="inlineStr">
+        <is>
+          <t>גרם לאפקט</t>
+        </is>
+      </c>
+      <c r="E184" s="12" t="inlineStr">
+        <is>
+          <t>caused the effect</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D185" s="12" t="inlineStr">
+        <is>
+          <t>גרם לי להבין</t>
+        </is>
+      </c>
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>made me understand</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
+        <is>
+          <t>גורם לי</t>
+        </is>
+      </c>
+      <c r="E186" s="12" t="inlineStr">
+        <is>
+          <t>makes me</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D187" s="12" t="inlineStr">
+        <is>
+          <t>תן לה</t>
+        </is>
+      </c>
+      <c r="E187" s="12" t="inlineStr">
+        <is>
+          <t>give her</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D188" s="12" t="inlineStr">
+        <is>
+          <t>בת שלה</t>
+        </is>
+      </c>
+      <c r="E188" s="12" t="inlineStr">
+        <is>
+          <t>her daughter</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" s="12" t="inlineStr">
+        <is>
+          <t>תעזוב אותה</t>
+        </is>
+      </c>
+      <c r="E189" s="12" t="inlineStr">
+        <is>
+          <t>leave her</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D190" s="12" t="inlineStr">
+        <is>
+          <t>תעזוב אותה בשקט</t>
+        </is>
+      </c>
+      <c r="E190" s="12" t="inlineStr">
+        <is>
+          <t>leave her alone</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="191"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A200" ySplit="1"/>
+      <selection activeCell="E203" pane="bottomLeft" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="7" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="7" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="32.09765625" customWidth="1" style="12" min="5" max="5"/>
-    <col width="23.69921875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="7" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="7" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="32.09765625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -608,7 +676,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -637,7 +705,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -2582,7 +2650,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>אני הבנתי i ***** it</t>
+          <t>אני הבנתי *****i ***** *****</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2652,7 +2720,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="13.2" customHeight="1">
+    <row customHeight="1" ht="13.2" r="78">
       <c r="A78" t="n">
         <v>667</v>
       </c>
@@ -3114,7 +3182,7 @@
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>בכל מקרה אחר ***** ***** ***** in</t>
+          <t>בכל מקרה אחר ***** ***** ***** *****i</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3142,7 +3210,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>בכל רגע נתון at ***** ***** moment</t>
+          <t>בכל רגע נתון ***** ***** ***** *****a</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -4038,7 +4106,7 @@
       </c>
       <c r="D127" s="12" t="inlineStr">
         <is>
-          <t>בזמן קצר time ***** ***** *****</t>
+          <t>בזמן קצר *****t ***** ***** *****</t>
         </is>
       </c>
       <c r="E127" s="12" t="inlineStr">
@@ -4626,7 +4694,7 @@
       </c>
       <c r="D148" s="12" t="inlineStr">
         <is>
-          <t>עדכני ***** ***** up</t>
+          <t>עדכני ***** ***** *****up</t>
         </is>
       </c>
       <c r="E148" s="12" t="inlineStr">
@@ -5522,12 +5590,12 @@
       </c>
       <c r="D180" s="12" t="inlineStr">
         <is>
-          <t>להוציא ***** ***** to</t>
+          <t>להוציא ***** ***** *****t</t>
         </is>
       </c>
       <c r="E180" s="12" t="inlineStr">
         <is>
-          <t>take out</t>
+          <t>to take out</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -5802,7 +5870,7 @@
       </c>
       <c r="D190" s="12" t="inlineStr">
         <is>
-          <t>תעזוב אותה בשקט</t>
+          <t>תעזוב אותה בשקט *****a ***** *****</t>
         </is>
       </c>
       <c r="E190" s="12" t="inlineStr">
@@ -5816,10 +5884,345 @@
         </is>
       </c>
     </row>
-    <row r="191"/>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D191" s="12" t="inlineStr">
+        <is>
+          <t>מחוץ לתחום ounds***** ***** *****</t>
+        </is>
+      </c>
+      <c r="E191" s="12" t="inlineStr">
+        <is>
+          <t>out of bounds</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" s="12" t="inlineStr">
+        <is>
+          <t>אוויר טוב בחוץ ***** ***** *****</t>
+        </is>
+      </c>
+      <c r="E192" s="12" t="inlineStr">
+        <is>
+          <t>good air outside</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>200815</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D193" s="12" t="inlineStr">
+        <is>
+          <t>מאמץ גדול</t>
+        </is>
+      </c>
+      <c r="E193" s="12" t="inlineStr">
+        <is>
+          <t>big effort</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" s="12" t="inlineStr">
+        <is>
+          <t>אעשה מאמץ</t>
+        </is>
+      </c>
+      <c r="E194" s="12" t="inlineStr">
+        <is>
+          <t>i will make an effort</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" s="12" t="inlineStr">
+        <is>
+          <t>הצלחה ללא מאמץ ***** *****</t>
+        </is>
+      </c>
+      <c r="E195" s="12" t="inlineStr">
+        <is>
+          <t>effortless success</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" s="12" t="inlineStr">
+        <is>
+          <t>הצלחה וכשלון</t>
+        </is>
+      </c>
+      <c r="E196" s="12" t="inlineStr">
+        <is>
+          <t>success and failure</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" s="12" t="inlineStr">
+        <is>
+          <t>אני מתכוון</t>
+        </is>
+      </c>
+      <c r="E197" s="12" t="inlineStr">
+        <is>
+          <t>i mean</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" s="12" t="inlineStr">
+        <is>
+          <t>לא התכוונתי ***** ***** ***** *****</t>
+        </is>
+      </c>
+      <c r="E198" s="12" t="inlineStr">
+        <is>
+          <t>i did not mean</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" s="12" t="inlineStr">
+        <is>
+          <t>אנחנו נלחמים ביחד ***** ***** *****</t>
+        </is>
+      </c>
+      <c r="E199" s="12" t="inlineStr">
+        <is>
+          <t>we fight together</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D200" s="12" t="inlineStr">
+        <is>
+          <t>להיות האחד</t>
+        </is>
+      </c>
+      <c r="E200" s="12" t="inlineStr">
+        <is>
+          <t>to be the one</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D201" s="12" t="inlineStr">
+        <is>
+          <t>יום אחד</t>
+        </is>
+      </c>
+      <c r="E201" s="12" t="inlineStr">
+        <is>
+          <t>one day</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D202" s="12" t="inlineStr">
+        <is>
+          <t>לי, אלי ***** *****</t>
+        </is>
+      </c>
+      <c r="E202" s="12" t="inlineStr">
+        <is>
+          <t>to me</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5831,7 +6234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5843,7 +6246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5854,7 +6257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD163DFB-EBA8-4AE2-93DA-FEF53812E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09B1FB-2C7C-4994-8F65-1EC75407DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>20/01/21</t>
   </si>
   <si>
-    <t>צורת רבים (בלשון)</t>
-  </si>
-  <si>
     <t>plural form</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
     <t>go home</t>
   </si>
   <si>
+    <t>לך מפה ***** *****</t>
+  </si>
+  <si>
     <t>go away</t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>good option</t>
   </si>
   <si>
-    <t>לך מפה ***** *****</t>
+    <t>צורת רבים (בלשון) ***** *****</t>
   </si>
 </sst>
 </file>
@@ -1874,8 +1874,8 @@
   <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2007,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="10">
@@ -2028,13 +2028,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2108,13 +2108,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,13 +2128,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,13 +2148,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,13 +2168,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,13 +2208,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" t="s">
         <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,13 +2248,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2268,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2308,13 +2308,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2328,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2348,13 +2348,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,13 +2368,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="G24" t="s">
         <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,13 +2388,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,13 +2428,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,13 +2448,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,13 +2468,13 @@
         <v>7</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="G29" t="s">
         <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2488,13 +2488,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,13 +2508,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,13 +2548,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2568,13 +2568,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2588,13 +2588,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,13 +2628,13 @@
         <v>7</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2648,13 +2648,13 @@
         <v>7</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,13 +2668,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,13 +2688,13 @@
         <v>7</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="G41" t="s">
         <v>97</v>
-      </c>
-      <c r="G41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2728,13 +2728,13 @@
         <v>7</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2748,13 +2748,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2768,13 +2768,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2788,13 +2788,13 @@
         <v>7</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,13 +2808,13 @@
         <v>7</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,13 +2848,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="G48" t="s">
         <v>112</v>
-      </c>
-      <c r="G48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2888,13 +2888,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,13 +2908,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,13 +2928,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="G52" t="s">
         <v>121</v>
-      </c>
-      <c r="G52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,13 +2948,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,13 +2968,13 @@
         <v>7</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>7</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,13 +3008,13 @@
         <v>7</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,13 +3028,13 @@
         <v>7</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,13 +3048,13 @@
         <v>7</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>135</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
         <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>139</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
         <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>149</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>153</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="G69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>159</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>153</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>169</v>
       </c>
       <c r="G76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09B1FB-2C7C-4994-8F65-1EC75407DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1E5B4-0DA4-47CB-9BCE-8D9F5ADB0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="467">
   <si>
     <t>Id</t>
   </si>
@@ -1409,6 +1409,18 @@
   </si>
   <si>
     <t>צורת רבים (בלשון) ***** *****</t>
+  </si>
+  <si>
+    <t>happy new year</t>
+  </si>
+  <si>
+    <t>שנה טובה ***** ***** *****</t>
+  </si>
+  <si>
+    <t>שנה הבאה</t>
+  </si>
+  <si>
+    <t>next year</t>
   </si>
 </sst>
 </file>
@@ -1871,11 +1883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6195,6 +6207,22 @@
       </c>
       <c r="G215" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D216" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D217" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -6724,7 +6656,147 @@
         </is>
       </c>
     </row>
-    <row r="221"/>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" s="12" t="inlineStr">
+        <is>
+          <t>על מנת to ***** *****</t>
+        </is>
+      </c>
+      <c r="E221" s="12" t="inlineStr">
+        <is>
+          <t>in order to</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" s="12" t="inlineStr">
+        <is>
+          <t>הורים טובים</t>
+        </is>
+      </c>
+      <c r="E222" s="12" t="inlineStr">
+        <is>
+          <t>good parents</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" s="12" t="inlineStr">
+        <is>
+          <t>הורים וילדים</t>
+        </is>
+      </c>
+      <c r="E223" s="12" t="inlineStr">
+        <is>
+          <t>parents and children</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" s="12" t="inlineStr">
+        <is>
+          <t>הורים לילדים גבוהים</t>
+        </is>
+      </c>
+      <c r="E224" s="12" t="inlineStr">
+        <is>
+          <t>parents of tall children</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D225" s="12" t="inlineStr">
+        <is>
+          <t>על מנת לזוז</t>
+        </is>
+      </c>
+      <c r="E225" s="12" t="inlineStr">
+        <is>
+          <t>in order to move</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="226"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -6796,7 +6796,259 @@
         </is>
       </c>
     </row>
-    <row r="226"/>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D226" s="12" t="inlineStr">
+        <is>
+          <t>מסביב לבית</t>
+        </is>
+      </c>
+      <c r="E226" s="12" t="inlineStr">
+        <is>
+          <t>around the house</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D227" s="12" t="inlineStr">
+        <is>
+          <t>מסביבי</t>
+        </is>
+      </c>
+      <c r="E227" s="12" t="inlineStr">
+        <is>
+          <t>around me</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" s="12" t="inlineStr">
+        <is>
+          <t>מסביבם</t>
+        </is>
+      </c>
+      <c r="E228" s="12" t="inlineStr">
+        <is>
+          <t>around them</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" s="12" t="inlineStr">
+        <is>
+          <t>מנהיג שלנו</t>
+        </is>
+      </c>
+      <c r="E229" s="12" t="inlineStr">
+        <is>
+          <t>our leader</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D230" s="12" t="inlineStr">
+        <is>
+          <t>תוביל אותי לשם</t>
+        </is>
+      </c>
+      <c r="E230" s="12" t="inlineStr">
+        <is>
+          <t>lead me there</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D231" s="12" t="inlineStr">
+        <is>
+          <t>להוביל קבוצה</t>
+        </is>
+      </c>
+      <c r="E231" s="12" t="inlineStr">
+        <is>
+          <t>to lead a group</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D232" s="12" t="inlineStr">
+        <is>
+          <t>להוביל קדימה</t>
+        </is>
+      </c>
+      <c r="E232" s="12" t="inlineStr">
+        <is>
+          <t>to lead forward</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D233" s="12" t="inlineStr">
+        <is>
+          <t>להוביל אותנו</t>
+        </is>
+      </c>
+      <c r="E233" s="12" t="inlineStr">
+        <is>
+          <t>to lead us</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D234" s="12" t="inlineStr">
+        <is>
+          <t>כרטיס לאדם אחד *****t *****-*****</t>
+        </is>
+      </c>
+      <c r="E234" s="12" t="inlineStr">
+        <is>
+          <t>one-person ticket</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="235"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
@@ -7496,7 +7564,6 @@
         </is>
       </c>
     </row>
-    <row r="251"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
@@ -7564,6 +7496,7 @@
         </is>
       </c>
     </row>
+    <row r="251"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699FD4F-B65A-456D-B3B4-5E1EDDED5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CDB5A8-E90D-414E-B941-FCB751946749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,12 +1210,12 @@
     <t>caused the effect</t>
   </si>
   <si>
+    <t>גרם לי להבין ***** ***** *****m</t>
+  </si>
+  <si>
     <t>made me understand</t>
   </si>
   <si>
-    <t>גורם לי</t>
-  </si>
-  <si>
     <t>makes me</t>
   </si>
   <si>
@@ -1630,7 +1630,7 @@
     <t>give them</t>
   </si>
   <si>
-    <t>גרם לי להבין ***** ***** *****m</t>
+    <t>גורם לי ***** *****m</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5810,10 +5810,10 @@
         <v>7</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>536</v>
+        <v>396</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G185" t="s">
         <v>391</v>
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>397</v>
+        <v>536</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>398</v>

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CDB5A8-E90D-414E-B941-FCB751946749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865DC6D-0DCD-4682-B00A-B6A815B0CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,9 +883,6 @@
     <t>only with me</t>
   </si>
   <si>
-    <t>קובץ לקריאה בלבד</t>
-  </si>
-  <si>
     <t>read-only file</t>
   </si>
   <si>
@@ -1216,6 +1213,9 @@
     <t>made me understand</t>
   </si>
   <si>
+    <t>גורם לי ***** *****m</t>
+  </si>
+  <si>
     <t>makes me</t>
   </si>
   <si>
@@ -1630,7 +1630,7 @@
     <t>give them</t>
   </si>
   <si>
-    <t>גורם לי ***** *****m</t>
+    <t>קובץ לקריאה בלבד ***** *****-*****</t>
   </si>
 </sst>
 </file>
@@ -2096,8 +2096,8 @@
   <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4790,10 +4790,10 @@
         <v>7</v>
       </c>
       <c r="D134" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="G134" t="s">
         <v>278</v>
@@ -4810,10 +4810,10 @@
         <v>7</v>
       </c>
       <c r="D135" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>290</v>
       </c>
       <c r="G135" t="s">
         <v>278</v>
@@ -4830,10 +4830,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E136" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="G136" t="s">
         <v>278</v>
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="G137" t="s">
         <v>278</v>
@@ -4870,10 +4870,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="G138" t="s">
         <v>278</v>
@@ -4890,10 +4890,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="G139" t="s">
         <v>278</v>
@@ -4910,10 +4910,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="G140" t="s">
         <v>278</v>
@@ -4930,10 +4930,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E141" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="G141" t="s">
         <v>278</v>
@@ -4950,10 +4950,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="G142" t="s">
         <v>278</v>
@@ -4970,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="G143" t="s">
         <v>278</v>
@@ -4990,13 +4990,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E144" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="G144" t="s">
         <v>308</v>
-      </c>
-      <c r="G144" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,13 +5010,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="G145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5030,13 +5030,13 @@
         <v>7</v>
       </c>
       <c r="D146" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E146" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>313</v>
-      </c>
       <c r="G146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,13 +5050,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E147" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E147" s="12" t="s">
-        <v>315</v>
-      </c>
       <c r="G147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5070,13 +5070,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E148" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>317</v>
-      </c>
       <c r="G148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5090,13 +5090,13 @@
         <v>7</v>
       </c>
       <c r="D149" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E149" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>319</v>
-      </c>
       <c r="G149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,13 +5110,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E150" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E150" s="12" t="s">
-        <v>321</v>
-      </c>
       <c r="G150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,13 +5130,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E151" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="G151" t="s">
         <v>323</v>
-      </c>
-      <c r="G151" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5150,13 +5150,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E152" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E152" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="G152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,13 +5170,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E153" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="G153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5190,13 +5190,13 @@
         <v>7</v>
       </c>
       <c r="D154" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E154" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E154" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="G154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5210,13 +5210,13 @@
         <v>7</v>
       </c>
       <c r="D155" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E155" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="G155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5230,13 +5230,13 @@
         <v>7</v>
       </c>
       <c r="D156" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E156" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E156" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="G156" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5250,13 +5250,13 @@
         <v>7</v>
       </c>
       <c r="D157" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E157" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E157" s="12" t="s">
-        <v>336</v>
-      </c>
       <c r="G157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5270,13 +5270,13 @@
         <v>7</v>
       </c>
       <c r="D158" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E158" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="12" t="s">
-        <v>338</v>
-      </c>
       <c r="G158" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D159" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E159" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="G159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5310,13 +5310,13 @@
         <v>7</v>
       </c>
       <c r="D160" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E160" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="G160" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,13 +5330,13 @@
         <v>7</v>
       </c>
       <c r="D161" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E161" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E161" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="G161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5350,13 +5350,13 @@
         <v>7</v>
       </c>
       <c r="D162" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E162" s="12" t="s">
-        <v>346</v>
-      </c>
       <c r="G162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,13 +5370,13 @@
         <v>7</v>
       </c>
       <c r="D163" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E163" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E163" s="12" t="s">
-        <v>348</v>
-      </c>
       <c r="G163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5390,13 +5390,13 @@
         <v>7</v>
       </c>
       <c r="D164" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E164" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E164" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="G164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5410,13 +5410,13 @@
         <v>7</v>
       </c>
       <c r="D165" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E165" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E165" s="12" t="s">
-        <v>352</v>
-      </c>
       <c r="G165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5430,13 +5430,13 @@
         <v>7</v>
       </c>
       <c r="D166" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E166" s="12" t="s">
-        <v>354</v>
-      </c>
       <c r="G166" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5450,13 +5450,13 @@
         <v>7</v>
       </c>
       <c r="D167" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E167" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E167" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="G167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,13 +5470,13 @@
         <v>7</v>
       </c>
       <c r="D168" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E168" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E168" s="12" t="s">
-        <v>358</v>
-      </c>
       <c r="G168" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5490,13 +5490,13 @@
         <v>7</v>
       </c>
       <c r="D169" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E169" s="12" t="s">
+      <c r="G169" t="s">
         <v>360</v>
-      </c>
-      <c r="G169" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5510,13 +5510,13 @@
         <v>7</v>
       </c>
       <c r="D170" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E170" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="G170" t="s">
         <v>363</v>
-      </c>
-      <c r="G170" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,13 +5530,13 @@
         <v>7</v>
       </c>
       <c r="D171" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E171" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E171" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="G171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5550,13 +5550,13 @@
         <v>7</v>
       </c>
       <c r="D172" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E172" s="12" t="s">
-        <v>368</v>
-      </c>
       <c r="G172" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,13 +5570,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E173" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E173" s="12" t="s">
-        <v>370</v>
-      </c>
       <c r="G173" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,13 +5590,13 @@
         <v>7</v>
       </c>
       <c r="D174" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E174" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="G174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5610,13 +5610,13 @@
         <v>7</v>
       </c>
       <c r="D175" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E175" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E175" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="G175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5630,13 +5630,13 @@
         <v>7</v>
       </c>
       <c r="D176" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E176" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E176" s="12" t="s">
+      <c r="G176" t="s">
         <v>376</v>
-      </c>
-      <c r="G176" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5650,13 +5650,13 @@
         <v>7</v>
       </c>
       <c r="D177" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E177" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E177" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="G177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5670,13 +5670,13 @@
         <v>7</v>
       </c>
       <c r="D178" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E178" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E178" s="12" t="s">
-        <v>381</v>
-      </c>
       <c r="G178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5690,13 +5690,13 @@
         <v>7</v>
       </c>
       <c r="D179" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E179" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E179" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="G179" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5710,13 +5710,13 @@
         <v>7</v>
       </c>
       <c r="D180" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E180" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="G180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5730,13 +5730,13 @@
         <v>7</v>
       </c>
       <c r="D181" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E181" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E181" s="12" t="s">
+      <c r="G181" t="s">
         <v>387</v>
-      </c>
-      <c r="G181" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D182" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E182" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E182" s="12" t="s">
+      <c r="G182" t="s">
         <v>390</v>
-      </c>
-      <c r="G182" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5770,13 +5770,13 @@
         <v>7</v>
       </c>
       <c r="D183" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E183" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="G183" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,13 +5790,13 @@
         <v>7</v>
       </c>
       <c r="D184" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E184" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="E184" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="G184" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5810,13 +5810,13 @@
         <v>7</v>
       </c>
       <c r="D185" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E185" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E185" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="G185" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5830,13 +5830,13 @@
         <v>7</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>536</v>
+        <v>397</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>398</v>
       </c>
       <c r="G186" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>400</v>
       </c>
       <c r="G187" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
         <v>402</v>
       </c>
       <c r="G188" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>404</v>
       </c>
       <c r="G189" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
         <v>406</v>
       </c>
       <c r="G190" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865DC6D-0DCD-4682-B00A-B6A815B0CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD942126-A12C-4932-9BDD-B72A6BCC7A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,9 +550,6 @@
     <t>200616</t>
   </si>
   <si>
-    <t>גבוה ככל הניתן</t>
-  </si>
-  <si>
     <t>as high as possible</t>
   </si>
   <si>
@@ -883,6 +880,9 @@
     <t>only with me</t>
   </si>
   <si>
+    <t>קובץ לקריאה בלבד ***** *****-*****</t>
+  </si>
+  <si>
     <t>read-only file</t>
   </si>
   <si>
@@ -1630,7 +1630,7 @@
     <t>give them</t>
   </si>
   <si>
-    <t>קובץ לקריאה בלבד ***** *****-*****</t>
+    <t>גבוה ככל הניתן ***** ***** ***** *****a</t>
   </si>
 </sst>
 </file>
@@ -2096,8 +2096,8 @@
   <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3690,10 +3690,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G79" t="s">
         <v>175</v>
@@ -3710,10 +3710,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="G80" t="s">
         <v>175</v>
@@ -3730,10 +3730,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="G81" t="s">
         <v>175</v>
@@ -3750,10 +3750,10 @@
         <v>7</v>
       </c>
       <c r="D82" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="G82" t="s">
         <v>175</v>
@@ -3770,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D83" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="G83" t="s">
         <v>175</v>
@@ -3790,10 +3790,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="G84" t="s">
         <v>175</v>
@@ -3810,10 +3810,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="G85" t="s">
         <v>175</v>
@@ -3830,10 +3830,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="G86" t="s">
         <v>175</v>
@@ -3850,10 +3850,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="G87" t="s">
         <v>175</v>
@@ -3870,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="G88" t="s">
         <v>175</v>
@@ -3890,10 +3890,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="G89" t="s">
         <v>175</v>
@@ -3910,10 +3910,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="G90" t="s">
         <v>165</v>
@@ -3930,10 +3930,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="G91" t="s">
         <v>165</v>
@@ -3950,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="D92" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G92" t="s">
         <v>165</v>
@@ -3970,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="G93" t="s">
         <v>175</v>
@@ -3990,10 +3990,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="G94" t="s">
         <v>165</v>
@@ -4010,10 +4010,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="G95" t="s">
         <v>165</v>
@@ -4030,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="G96" t="s">
         <v>175</v>
@@ -4050,10 +4050,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="G97" t="s">
         <v>165</v>
@@ -4070,10 +4070,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="G98" t="s">
         <v>165</v>
@@ -4090,10 +4090,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="G99" t="s">
         <v>165</v>
@@ -4110,10 +4110,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="G100" t="s">
         <v>165</v>
@@ -4130,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="G101" t="s">
         <v>165</v>
@@ -4150,10 +4150,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="G102" t="s">
         <v>165</v>
@@ -4170,10 +4170,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="G103" t="s">
         <v>165</v>
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="G104" t="s">
         <v>165</v>
@@ -4210,10 +4210,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="G105" t="s">
         <v>165</v>
@@ -4230,10 +4230,10 @@
         <v>7</v>
       </c>
       <c r="D106" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="G106" t="s">
         <v>165</v>
@@ -4250,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="D107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="G107" t="s">
         <v>165</v>
@@ -4270,10 +4270,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="G108" t="s">
         <v>165</v>
@@ -4290,10 +4290,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="G109" t="s">
         <v>165</v>
@@ -4310,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="D110" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="G110" t="s">
         <v>165</v>
@@ -4330,10 +4330,10 @@
         <v>7</v>
       </c>
       <c r="D111" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="G111" t="s">
         <v>165</v>
@@ -4350,10 +4350,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="G112" t="s">
         <v>165</v>
@@ -4370,10 +4370,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="G113" t="s">
         <v>165</v>
@@ -4390,10 +4390,10 @@
         <v>7</v>
       </c>
       <c r="D114" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="G114" t="s">
         <v>165</v>
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="D115" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="G115" t="s">
         <v>165</v>
@@ -4430,10 +4430,10 @@
         <v>7</v>
       </c>
       <c r="D116" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="G116" t="s">
         <v>165</v>
@@ -4450,10 +4450,10 @@
         <v>7</v>
       </c>
       <c r="D117" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E117" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="G117" t="s">
         <v>165</v>
@@ -4470,10 +4470,10 @@
         <v>7</v>
       </c>
       <c r="D118" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E118" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="G118" t="s">
         <v>165</v>
@@ -4490,10 +4490,10 @@
         <v>7</v>
       </c>
       <c r="D119" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G119" t="s">
         <v>165</v>
@@ -4510,10 +4510,10 @@
         <v>7</v>
       </c>
       <c r="D120" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="G120" t="s">
         <v>165</v>
@@ -4530,10 +4530,10 @@
         <v>7</v>
       </c>
       <c r="D121" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="G121" t="s">
         <v>165</v>
@@ -4550,10 +4550,10 @@
         <v>7</v>
       </c>
       <c r="D122" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E122" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="G122" t="s">
         <v>165</v>
@@ -4570,10 +4570,10 @@
         <v>7</v>
       </c>
       <c r="D123" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="G123" t="s">
         <v>165</v>
@@ -4590,10 +4590,10 @@
         <v>7</v>
       </c>
       <c r="D124" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="G124" t="s">
         <v>165</v>
@@ -4610,10 +4610,10 @@
         <v>7</v>
       </c>
       <c r="D125" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="G125" t="s">
         <v>165</v>
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="D126" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="G126" t="s">
         <v>165</v>
@@ -4650,10 +4650,10 @@
         <v>7</v>
       </c>
       <c r="D127" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="G127" t="s">
         <v>165</v>
@@ -4670,10 +4670,10 @@
         <v>7</v>
       </c>
       <c r="D128" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="G128" t="s">
         <v>165</v>
@@ -4690,13 +4690,13 @@
         <v>7</v>
       </c>
       <c r="D129" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="G129" t="s">
         <v>277</v>
-      </c>
-      <c r="G129" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4710,13 +4710,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E130" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E130" s="12" t="s">
-        <v>280</v>
-      </c>
       <c r="G130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4730,13 +4730,13 @@
         <v>7</v>
       </c>
       <c r="D131" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E131" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="G131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,13 +4750,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E132" s="12" t="s">
-        <v>284</v>
-      </c>
       <c r="G132" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4770,13 +4770,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="12" t="s">
-        <v>286</v>
-      </c>
       <c r="G133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>536</v>
+        <v>286</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>287</v>
       </c>
       <c r="G134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>289</v>
       </c>
       <c r="G135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
         <v>291</v>
       </c>
       <c r="G136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>293</v>
       </c>
       <c r="G137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>295</v>
       </c>
       <c r="G138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>297</v>
       </c>
       <c r="G139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>299</v>
       </c>
       <c r="G140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>301</v>
       </c>
       <c r="G141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>303</v>
       </c>
       <c r="G142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>305</v>
       </c>
       <c r="G143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -537,8 +537,8 @@
   <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>בכל זמן</t>
+          <t>בכל זמן ***** ***** *****a</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">

--- a/Questions/English/Phrases 1000.xlsx
+++ b/Questions/English/Phrases 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4570,7 +4638,7 @@
       </c>
       <c r="D146" s="12" t="inlineStr">
         <is>
-          <t>לוותר to ***** up</t>
+          <t>לוותר to **** up</t>
         </is>
       </c>
       <c r="E146" s="12" t="inlineStr">
@@ -4598,7 +4666,7 @@
       </c>
       <c r="D147" s="12" t="inlineStr">
         <is>
-          <t>עדכני ed*****</t>
+          <t>ע******י ed*******</t>
         </is>
       </c>
       <c r="E147" s="12" t="inlineStr">
